--- a/medicine/Mort/Décès_en_1930/Décès_en_1930.xlsx
+++ b/medicine/Mort/Décès_en_1930/Décès_en_1930.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1930</t>
+          <t>Décès_en_1930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1930</t>
+          <t>Décès_en_1930</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Federico Andreotti, peintre italien (° 6 mars 1847).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Federico Andreotti, peintre italien (° 6 mars 1847).
 Charles Clair, peintre et graveur français (° 16 septembre 1860).
 Ricardo Giovannini, peintre, comédien, chanteur, metteur en scène, photographe et décorateur italien (° 1853).
 Diane de Guldencrone, historienne et écrivaine français (° 1848).
 Guydo, peintre, affichiste, dessinateur et illustrateur français (° 22 août 1868).
 Robert Hennet, escrimeur belge (° 22 janvier 1886).
 1930 ou 1936 :
-Jean Enders, peintre français (° 22 août 1861).
-Janvier
-7 janvier : André Suréda, peintre, dessinateur, graveur et illustrateur français (° 5 juin 1872).
+Jean Enders, peintre français (° 22 août 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 janvier : André Suréda, peintre, dessinateur, graveur et illustrateur français (° 5 juin 1872).
 12 janvier : Gustav van Treeck, peintre-verrier allemand (° 1er juin 1864).
 13 janvier : René Ménard, peintre symboliste français (° 15 avril 1862).
 16 janvier : Angiolo Achini, peintre italien (° 6 mars 1850).
@@ -549,9 +600,43 @@
 Jean Huré, pianiste, organiste, musicologue, musicographe, théoricien et compositeur français (° 17 septembre 1877).
 Leonardo de Mango, peintre orientaliste italien (° 19 février 1843).
 28 janvier : Édouard Bénédictus, chimiste, décorateur, peintre et compositeur français (° 29 juin 1878).
-31 janvier : Benedykt Dybowski, zoologiste polonais (° 30 avril 1833).
-Février
-8 février : Fritz Arthur Jusélius, industriel et conseiller des mines finlandais (° 13 juin 1855).
+31 janvier : Benedykt Dybowski, zoologiste polonais (° 30 avril 1833).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8 février : Fritz Arthur Jusélius, industriel et conseiller des mines finlandais (° 13 juin 1855).
 10 février : Maurice Neumont, peintre et affichiste français (° 22 septembre 1868).
 12 février :
 Eva Dell'Acqua, chanteuse et compositrice belge d'origine italiennr (° 28 février 1856).
@@ -561,9 +646,43 @@
 16 février : Anatoli Brandoukov, violoncelliste russe (° 6 janvier 1859).
 26 février : Rafael Merry del Val, cardinal, ancien secrétaire d'État de la Curie romaine  (° 10 octobre 1865).
 27 février : Ahmad Chah, dernier souverain iranien de la dynastie des Qadjar (° 21 janvier 1898).
-28 février : Rasmus Andersen, sculpteur danois (° 25 septembre 1861).
-Mars
-8 mars :
+28 février : Rasmus Andersen, sculpteur danois (° 25 septembre 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 mars :
 Jules Habert-Dys, peintre, maître-verrier, graveur et enseignant français (° 23 septembre 1850).
 William Howard Taft, président des États-Unis (° 15 septembre 1857).
 11 mars : Auguste Durst, peintre français (° 7 juillet 1842).
@@ -579,9 +698,43 @@
 24 mars : Eugeen van Mieghem, peintre belge (° 1er octobre 1875).
 28 mars :
 Kanzō Uchimura, écrivain et religieux japonais (° 26 mars 1861).
-Félicien Menu de Ménil, consul, musicien et espérantiste français (° 16 juillet 1860).
-Avril
-2 avril : Albert Bourderon, tonnelier et syndicaliste français (° 26 novembre 1858).
+Félicien Menu de Ménil, consul, musicien et espérantiste français (° 16 juillet 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Albert Bourderon, tonnelier et syndicaliste français (° 26 novembre 1858).
 3 avril : Emma Albani, cantatrice canadienne (° 1er novembre 1847).
 7 avril : Ricardo Acevedo Bernal, peintre colombien (° 4 mai 1867).
 8 avril : Paul Antin, peintre français (° 14 avril 1863).
@@ -594,9 +747,43 @@
 Léon Leclerc, peintre français (° 24 avril 1866).
 26 avril : Henry-Eugène Delacroix, peintre français (° 16 janvier 1845).
 28 avril : Willy Finch, peintre belge (° 28 novembre 1854).
-28 avril : Charles Grandmougin, poète et dramaturge français (° 17 janvier 1850).
-Mai
-5 mai : Paul Chocarne-Moreau, peintre naturaliste et illustrateur français (° 31 octobre 1855).
+28 avril : Charles Grandmougin, poète et dramaturge français (° 17 janvier 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5 mai : Paul Chocarne-Moreau, peintre naturaliste et illustrateur français (° 31 octobre 1855).
 9 mai : Filipe Schmidt, homme politique brésilien (° 4 mai 1860).
 10 mai :
 Kanzan Shimomura, peintre japonais (° 10 avril 1873).
@@ -605,25 +792,127 @@
 19 mai : Spyros Spyromilios, officier de gendarmerie grec pendant la Première Guerre balkanique (° 1864).
 21 mai : Jules-Armand Hanriot, peintre, graveur et illustrateur français (° 11 juin 1853).
 22 mai : Jean Francis Auburtin, décorateur français (° 2 décembre 1866).
-28 mai : Louis-Joseph Luçon, cardinal français, archevêque de Reims (° 28 octobre 1842).
-Juin
-2 juin : Jules Pascin, peintre américain d'origine bulgare (° 31 mars 1885).
+28 mai : Louis-Joseph Luçon, cardinal français, archevêque de Reims (° 28 octobre 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Jules Pascin, peintre américain d'origine bulgare (° 31 mars 1885).
 3 juin : Oleksandr Bohomazov, peintre russe puis soviétique (° 26 mars 1880).
 5 juin : Nicolas Tarkhoff, peintre russe puis soviétique (° 20 janvier 1871).
 12 juin : Paul Verheyleweghen,  homme politique belge (° 8 novembre 1858).
 20 juin : « Minuto » (Enrique Vargas González), matador espagnol (° 21 décembre 1870).
 22 juin : Philippe Robert, peintre et illustrateur suisse (° 30 avril 1881).
-27 juin : Maui Pomare, homme politique néo-zélandais (° 24 août 1875).
-Juillet
-1er juillet : Olga Meerson, peintre russe puis soviétique (° 5 décembre 1880).
-1er juillet : Francisco Stromp, footballeur portugais ayant remporté la Coupe du portugal 1923 devenu entraineur puis dirigeant[1] (° 21 mai 1892).
+27 juin : Maui Pomare, homme politique néo-zélandais (° 24 août 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Olga Meerson, peintre russe puis soviétique (° 5 décembre 1880).
+1er juillet : Francisco Stromp, footballeur portugais ayant remporté la Coupe du portugal 1923 devenu entraineur puis dirigeant (° 21 mai 1892).
 3 juillet : Pierre Termier, géologue français (° 3 juillet 1859).
 7 juillet : Sir Arthur Conan Doyle, romancier britannique, créateur du personnage de Sherlock Holmes (° 22 mai 1859).
 9 juillet : Vincenzo Vannutelli, cardinal italien de la Curie romaine (° 5 décembre 1836).
 15 juillet : Pierre Bonnaud, peintre français (° 16 novembre 1865).
-26 juillet : João Pessoa Cavalcanti de Albuquerque, homme politique brésilien (° 24 janvier 1878).
-Août
-4 août : Siegfried Wagner, compositeur et chef d'orchestre allemand
+26 juillet : João Pessoa Cavalcanti de Albuquerque, homme politique brésilien (° 24 janvier 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : Siegfried Wagner, compositeur et chef d'orchestre allemand
 5 août : Auguste Prévot-Valéri, peintre français (° 21 janvier 1857).
 9 août : Johnny Burke, musicien et parolier canadien (° 1851).
 11 août : J. E. Casely Hayford, journaliste, écrivain, avocat, professeur et homme politique ghanéen (° 29 septembre 1866).
@@ -631,9 +920,43 @@
 22 août : Karl Kumm, missionnaire et explorateur britannique (° 19 octobre 1874).
 23 août : Iacob Pistiner, homme politique roumain (° 1882).
 25 août : Numa Marzocchi de Bellucci, peintre français (° 31 janvier 1846).
-26 août : Lon Chaney, acteur de cinéma muet américain (° 1er avril 1883).
-Septembre
-2 septembre : Hector du Poy, avocat, homme politique et militaire français (° 7 juin 1865)
+26 août : Lon Chaney, acteur de cinéma muet américain (° 1er avril 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Hector du Poy, avocat, homme politique et militaire français (° 7 juin 1865)
 4 septembre : Ludovic Morin, coureur cycliste français (° 25 août 1873).
 12 septembre : Amalia Freud, mère de Sigmund Freud (° 18 août 1835)
 15 septembre : Abel Camille Filuzeau, architecte français (° 10 juillet 1860).
@@ -642,9 +965,43 @@
 Lothar von Seebach, peintre, dessinateur, aquarelliste et graveur badois (° 26 mars 1853).
 24 septembre : Otto Mueller, peintre et imprimeur allemand (° 16 octobre 1874).
 25 septembre : Abram Arkhipov, peintre russe puis soviétique (° 27 août 1862).
-29 septembre : Ilia Répine, peintre russe puis soviétique (° 24 juillet 1844).
-Octobre
-2 octobre : Gordon Stewart Northcott, tueur en série américain (° 1908).
+29 septembre : Ilia Répine, peintre russe puis soviétique (° 24 juillet 1844).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Gordon Stewart Northcott, tueur en série américain (° 1908).
 5 octobre : Joe Fogler, coureur cycliste sur piste américain (° 17 mars 1884).
 9 octobre :
 Louis Béroud, peintre  français (° 17 janvier 1852).
@@ -654,15 +1011,83 @@
 17 octobre : Albert Joseph Pénot, peintre français (° 28 février 1862).
 19 octobre : Henry Gerbault, peintre, illustrateur, affichiste et dramaturge français (° 24 juin 1863).
 26 octobre : Paul-Napoléon Roinard, peintre, librettiste et poète libertaire français (° 4 février 1856).
-27 octobre : William Bechtel, acteur américain (° 12 juin 1867).
-Novembre
-? novembre : Alfred Wegener, astronome et météorologue allemand (° 1er novembre 1830).
+27 octobre : William Bechtel, acteur américain (° 12 juin 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>? novembre : Alfred Wegener, astronome et météorologue allemand (° 1er novembre 1830).
 6 novembre : Adolf Wölfli, artiste suisse d'art brut (° 29 février 1864).
 7 novembre : Alexis-Armand Charost, cardinal français, archevêque de Rennes (° 14 novembre 1860).
 18 novembre : Leopoldo Torricelli, coureur cycliste italien (° 2 février 1893).
-23 novembre : Maurycy Minkowski, peintre polonais d'origine juive (° 1881).
-Décembre
-2 décembre : Herman Johannes van der Weele, peintre néerlandais (° 13 janvier 1852).
+23 novembre : Maurycy Minkowski, peintre polonais d'origine juive (° 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1930</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Herman Johannes van der Weele, peintre néerlandais (° 13 janvier 1852).
 8 décembre : Florbela Espanca, poétesse portugaise (° 8 décembre 1894).
 17 décembre :
 Nikolaï Kassatkine, peintre et professeur russe puis soviétique (° 25 décembre 1859).
